--- a/Practica_2/Politropics.xlsx
+++ b/Practica_2/Politropics.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jmarc\Documents\Uni\TermoPractiques\Practica_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18795" windowHeight="11505" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Adiabàtic 1" sheetId="1" r:id="rId1"/>
     <sheet name="Adiabàtic 2" sheetId="2" r:id="rId2"/>
     <sheet name="Isotèrmic 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Isotèrmic 2" sheetId="4" r:id="rId4"/>
+    <sheet name="politropics_isotermic" sheetId="4" r:id="rId4"/>
     <sheet name="junts" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>Ch B</t>
   </si>
@@ -46,12 +51,27 @@
   <si>
     <t>Iso</t>
   </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Sd. Deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,20 +108,40 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -523,41 +563,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73074560"/>
-        <c:axId val="73073024"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125883056"/>
+        <c:axId val="2125883600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73074560"/>
+        <c:axId val="2125883056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73073024"/>
+        <c:crossAx val="2125883600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73073024"/>
+        <c:axId val="2125883600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73074560"/>
+        <c:crossAx val="2125883056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -569,21 +626,34 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Isotèrmic 2'!$C$3</c:f>
+              <c:f>politropics_isotermic!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -599,7 +669,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Isotèrmic 2'!$B$4:$B$153</c:f>
+              <c:f>politropics_isotermic!$B$4:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1058,7 +1128,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Isotèrmic 2'!$C$4:$C$153</c:f>
+              <c:f>politropics_isotermic!$C$4:$C$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1515,32 +1585,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91996160"/>
-        <c:axId val="91261184"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125884144"/>
+        <c:axId val="2125889584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91996160"/>
+        <c:axId val="2125884144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91261184"/>
+        <c:crossAx val="2125889584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91261184"/>
+        <c:axId val="2125889584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91996160"/>
+        <c:crossAx val="2125884144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1548,8 +1633,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1561,12 +1649,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1574,9 +1674,12 @@
             <c:strRef>
               <c:f>junts!$B$1:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Ad Pressió (kPa)</c:v>
+                  <c:v>Ad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pressió (kPa)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2002,6 +2105,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2024,6 +2128,8 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:trendlineType val="power"/>
@@ -2957,32 +3063,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94144768"/>
-        <c:axId val="91957888"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125885776"/>
+        <c:axId val="2125890672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94144768"/>
+        <c:axId val="2125885776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91957888"/>
+        <c:crossAx val="2125890672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91957888"/>
+        <c:axId val="2125890672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94144768"/>
+        <c:crossAx val="2125885776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,8 +3111,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3040,16 +3164,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3107,7 +3231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3149,7 +3273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3181,9 +3305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3215,6 +3340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3390,16 +3516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +3558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300.166</v>
       </c>
@@ -3443,7 +3569,7 @@
         <v>102.71899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300.166</v>
       </c>
@@ -3454,7 +3580,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300.166</v>
       </c>
@@ -3465,7 +3591,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300.166</v>
       </c>
@@ -3476,7 +3602,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300.166</v>
       </c>
@@ -3487,7 +3613,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300.166</v>
       </c>
@@ -3498,7 +3624,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>300.166</v>
       </c>
@@ -3509,7 +3635,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300.517</v>
       </c>
@@ -3520,7 +3646,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>300.517</v>
       </c>
@@ -3531,7 +3657,7 @@
         <v>104.33499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>300.86799999999999</v>
       </c>
@@ -3542,7 +3668,7 @@
         <v>105.413</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>300.86799999999999</v>
       </c>
@@ -3553,7 +3679,7 @@
         <v>105.413</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>301.21899999999999</v>
       </c>
@@ -3564,7 +3690,7 @@
         <v>106.491</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>301.56900000000002</v>
       </c>
@@ -3575,7 +3701,7 @@
         <v>107.029</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>302.27100000000002</v>
       </c>
@@ -3586,7 +3712,7 @@
         <v>108.107</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>302.27100000000002</v>
       </c>
@@ -3597,7 +3723,7 @@
         <v>108.646</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>302.97300000000001</v>
       </c>
@@ -3608,7 +3734,7 @@
         <v>109.723</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>303.67399999999998</v>
       </c>
@@ -3619,7 +3745,7 @@
         <v>110.262</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>304.02499999999998</v>
       </c>
@@ -3630,7 +3756,7 @@
         <v>111.34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>304.37599999999998</v>
       </c>
@@ -3641,7 +3767,7 @@
         <v>111.879</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>305.077</v>
       </c>
@@ -3652,7 +3778,7 @@
         <v>112.417</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>305.077</v>
       </c>
@@ -3663,7 +3789,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>305.428</v>
       </c>
@@ -3674,7 +3800,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>305.779</v>
       </c>
@@ -3685,7 +3811,7 @@
         <v>113.495</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>305.779</v>
       </c>
@@ -3696,7 +3822,7 @@
         <v>113.495</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>306.13</v>
       </c>
@@ -3707,7 +3833,7 @@
         <v>114.03400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>306.48</v>
       </c>
@@ -3718,7 +3844,7 @@
         <v>114.03400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>306.48</v>
       </c>
@@ -3729,7 +3855,7 @@
         <v>114.03400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>306.48</v>
       </c>
@@ -3740,7 +3866,7 @@
         <v>114.57299999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>306.83100000000002</v>
       </c>
@@ -3751,7 +3877,7 @@
         <v>114.57299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>307.18200000000002</v>
       </c>
@@ -3762,7 +3888,7 @@
         <v>115.11199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>307.18200000000002</v>
       </c>
@@ -3773,7 +3899,7 @@
         <v>115.11199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>307.88299999999998</v>
       </c>
@@ -3784,7 +3910,7 @@
         <v>115.65</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>307.88299999999998</v>
       </c>
@@ -3795,7 +3921,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>307.88299999999998</v>
       </c>
@@ -3806,7 +3932,7 @@
         <v>117.267</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>308.23399999999998</v>
       </c>
@@ -3817,7 +3943,7 @@
         <v>117.267</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>308.58499999999998</v>
       </c>
@@ -3828,7 +3954,7 @@
         <v>118.883</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>308.58499999999998</v>
       </c>
@@ -3839,7 +3965,7 @@
         <v>119.422</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>309.28699999999998</v>
       </c>
@@ -3850,7 +3976,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>309.988</v>
       </c>
@@ -3861,7 +3987,7 @@
         <v>121.577</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>310.69</v>
       </c>
@@ -3872,7 +3998,7 @@
         <v>122.655</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>311.04000000000002</v>
       </c>
@@ -3883,7 +4009,7 @@
         <v>124.271</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>311.74200000000002</v>
       </c>
@@ -3894,7 +4020,7 @@
         <v>125.88800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>312.44400000000002</v>
       </c>
@@ -3905,7 +4031,7 @@
         <v>127.504</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>313.49599999999998</v>
       </c>
@@ -3916,7 +4042,7 @@
         <v>129.65899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>314.197</v>
       </c>
@@ -3927,7 +4053,7 @@
         <v>131.27600000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>315.25</v>
       </c>
@@ -3938,7 +4064,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>316.30200000000002</v>
       </c>
@@ -3949,7 +4075,7 @@
         <v>136.66399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>317.70499999999998</v>
       </c>
@@ -3960,7 +4086,7 @@
         <v>138.81899999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>319.108</v>
       </c>
@@ -3971,7 +4097,7 @@
         <v>142.05199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>320.161</v>
       </c>
@@ -3982,7 +4108,7 @@
         <v>144.74600000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>321.91500000000002</v>
       </c>
@@ -3993,7 +4119,7 @@
         <v>147.44</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>322.96699999999998</v>
       </c>
@@ -4004,7 +4130,7 @@
         <v>150.673</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>324.721</v>
       </c>
@@ -4015,7 +4141,7 @@
         <v>153.36699999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>325.42200000000003</v>
       </c>
@@ -4026,7 +4152,7 @@
         <v>156.06100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>327.52699999999999</v>
       </c>
@@ -4037,7 +4163,7 @@
         <v>158.755</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>328.57900000000001</v>
       </c>
@@ -4048,7 +4174,7 @@
         <v>161.44900000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>330.33300000000003</v>
       </c>
@@ -4059,7 +4185,7 @@
         <v>164.68199999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>331.03500000000003</v>
       </c>
@@ -4070,7 +4196,7 @@
         <v>167.91499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>333.13900000000001</v>
       </c>
@@ -4081,7 +4207,7 @@
         <v>170.60900000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>334.19200000000001</v>
       </c>
@@ -4092,7 +4218,7 @@
         <v>173.303</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>335.94600000000003</v>
       </c>
@@ -4103,7 +4229,7 @@
         <v>176.536</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>336.99799999999999</v>
       </c>
@@ -4114,7 +4240,7 @@
         <v>179.76900000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>338.75200000000001</v>
       </c>
@@ -4125,7 +4251,7 @@
         <v>183.00200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>339.45299999999997</v>
       </c>
@@ -4136,7 +4262,7 @@
         <v>186.23400000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>341.20699999999999</v>
       </c>
@@ -4147,7 +4273,7 @@
         <v>188.928</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>342.61</v>
       </c>
@@ -4158,7 +4284,7 @@
         <v>192.161</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>344.01299999999998</v>
       </c>
@@ -4169,7 +4295,7 @@
         <v>194.85499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345.06599999999997</v>
       </c>
@@ -4180,7 +4306,7 @@
         <v>198.08799999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>346.46899999999999</v>
       </c>
@@ -4191,7 +4317,7 @@
         <v>200.24299999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>347.87200000000001</v>
       </c>
@@ -4202,7 +4328,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>348.57400000000001</v>
       </c>
@@ -4213,7 +4339,7 @@
         <v>205.09299999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>349.97699999999998</v>
       </c>
@@ -4224,7 +4350,7 @@
         <v>207.24799999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>350.678</v>
       </c>
@@ -4235,7 +4361,7 @@
         <v>209.40299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>351.73099999999999</v>
       </c>
@@ -4246,7 +4372,7 @@
         <v>211.55799999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>352.78300000000002</v>
       </c>
@@ -4257,7 +4383,7 @@
         <v>213.714</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>353.48399999999998</v>
       </c>
@@ -4268,7 +4394,7 @@
         <v>216.40799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>354.53699999999998</v>
       </c>
@@ -4279,7 +4405,7 @@
         <v>220.179</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>355.94</v>
       </c>
@@ -4290,7 +4416,7 @@
         <v>223.95099999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>357.34300000000002</v>
       </c>
@@ -4301,7 +4427,7 @@
         <v>227.72300000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>358.39499999999998</v>
       </c>
@@ -4312,7 +4438,7 @@
         <v>232.03299999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>359.798</v>
       </c>
@@ -4323,7 +4449,7 @@
         <v>235.80500000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>361.55200000000002</v>
       </c>
@@ -4334,7 +4460,7 @@
         <v>239.03800000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>362.60500000000002</v>
       </c>
@@ -4345,7 +4471,7 @@
         <v>242.27099999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>364.00799999999998</v>
       </c>
@@ -4356,7 +4482,7 @@
         <v>244.965</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>365.06</v>
       </c>
@@ -4367,7 +4493,7 @@
         <v>247.65899999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>366.11200000000002</v>
       </c>
@@ -4378,7 +4504,7 @@
         <v>249.81399999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>366.81400000000002</v>
       </c>
@@ -4395,16 +4521,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4415,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4426,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4437,7 +4563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300.166</v>
       </c>
@@ -4448,7 +4574,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300.166</v>
       </c>
@@ -4459,7 +4585,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300.166</v>
       </c>
@@ -4470,7 +4596,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300.517</v>
       </c>
@@ -4481,7 +4607,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300.517</v>
       </c>
@@ -4492,7 +4618,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300.166</v>
       </c>
@@ -4503,7 +4629,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>300.166</v>
       </c>
@@ -4514,7 +4640,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300.166</v>
       </c>
@@ -4525,7 +4651,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>300.517</v>
       </c>
@@ -4536,7 +4662,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>300.166</v>
       </c>
@@ -4547,7 +4673,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>300.166</v>
       </c>
@@ -4558,7 +4684,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300.166</v>
       </c>
@@ -4569,7 +4695,7 @@
         <v>103.258</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>300.166</v>
       </c>
@@ -4580,7 +4706,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>300.166</v>
       </c>
@@ -4591,7 +4717,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>300.517</v>
       </c>
@@ -4602,7 +4728,7 @@
         <v>103.797</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>300.86799999999999</v>
       </c>
@@ -4613,7 +4739,7 @@
         <v>104.33499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>300.86799999999999</v>
       </c>
@@ -4624,7 +4750,7 @@
         <v>104.33499999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>300.86799999999999</v>
       </c>
@@ -4635,7 +4761,7 @@
         <v>105.413</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>301.21899999999999</v>
       </c>
@@ -4646,7 +4772,7 @@
         <v>105.952</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>301.56900000000002</v>
       </c>
@@ -4657,7 +4783,7 @@
         <v>106.491</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>302.27100000000002</v>
       </c>
@@ -4668,7 +4794,7 @@
         <v>108.107</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>302.27100000000002</v>
       </c>
@@ -4679,7 +4805,7 @@
         <v>108.646</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>302.97300000000001</v>
       </c>
@@ -4690,7 +4816,7 @@
         <v>110.262</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>303.67399999999998</v>
       </c>
@@ -4701,7 +4827,7 @@
         <v>111.34</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>304.37599999999998</v>
       </c>
@@ -4712,7 +4838,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>305.077</v>
       </c>
@@ -4723,7 +4849,7 @@
         <v>114.57299999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>306.13</v>
       </c>
@@ -4734,7 +4860,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>307.18200000000002</v>
       </c>
@@ -4745,7 +4871,7 @@
         <v>118.34399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>308.23399999999998</v>
       </c>
@@ -4756,7 +4882,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>309.28699999999998</v>
       </c>
@@ -4767,7 +4893,7 @@
         <v>122.116</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>310.69</v>
       </c>
@@ -4778,7 +4904,7 @@
         <v>124.81</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>311.74200000000002</v>
       </c>
@@ -4789,7 +4915,7 @@
         <v>127.504</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>312.79399999999998</v>
       </c>
@@ -4800,7 +4926,7 @@
         <v>130.19800000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>314.197</v>
       </c>
@@ -4811,7 +4937,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>316.30200000000002</v>
       </c>
@@ -4822,7 +4948,7 @@
         <v>137.74199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>318.05599999999998</v>
       </c>
@@ -4833,7 +4959,7 @@
         <v>142.59100000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>320.161</v>
       </c>
@@ -4844,7 +4970,7 @@
         <v>146.90100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>322.26499999999999</v>
       </c>
@@ -4855,7 +4981,7 @@
         <v>151.751</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>324.721</v>
       </c>
@@ -4866,7 +4992,7 @@
         <v>157.13900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>326.82499999999999</v>
       </c>
@@ -4877,7 +5003,7 @@
         <v>162.52699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>330.33300000000003</v>
       </c>
@@ -4888,7 +5014,7 @@
         <v>168.99199999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>332.43799999999999</v>
       </c>
@@ -4899,7 +5025,7 @@
         <v>174.91900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>335.24400000000003</v>
       </c>
@@ -4910,7 +5036,7 @@
         <v>181.38499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>338.05</v>
       </c>
@@ -4921,7 +5047,7 @@
         <v>186.773</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>340.85599999999999</v>
       </c>
@@ -4932,7 +5058,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>343.31200000000001</v>
       </c>
@@ -4943,7 +5069,7 @@
         <v>198.08799999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>346.11799999999999</v>
       </c>
@@ -4954,7 +5080,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>348.57400000000001</v>
       </c>
@@ -4965,7 +5091,7 @@
         <v>207.78700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>350.678</v>
       </c>
@@ -4976,7 +5102,7 @@
         <v>213.17500000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>353.13400000000001</v>
       </c>
@@ -4987,7 +5113,7 @@
         <v>218.56299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>355.589</v>
       </c>
@@ -4998,7 +5124,7 @@
         <v>223.95099999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>357.69400000000002</v>
       </c>
@@ -5009,7 +5135,7 @@
         <v>229.87799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>360.149</v>
       </c>
@@ -5020,7 +5146,7 @@
         <v>235.80500000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>362.60500000000002</v>
       </c>
@@ -5031,7 +5157,7 @@
         <v>241.732</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>364.709</v>
       </c>
@@ -5042,7 +5168,7 @@
         <v>247.65899999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>366.81400000000002</v>
       </c>
@@ -5053,7 +5179,7 @@
         <v>253.58600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>369.62</v>
       </c>
@@ -5064,7 +5190,7 @@
         <v>259.512</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>371.02300000000002</v>
       </c>
@@ -5075,7 +5201,7 @@
         <v>265.43900000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>373.12799999999999</v>
       </c>
@@ -5086,7 +5212,7 @@
         <v>270.28899999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>375.233</v>
       </c>
@@ -5097,7 +5223,7 @@
         <v>275.67700000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>377.33699999999999</v>
       </c>
@@ -5108,7 +5234,7 @@
         <v>280.52600000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>379.44200000000001</v>
       </c>
@@ -5119,7 +5245,7 @@
         <v>283.22000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>380.84500000000003</v>
       </c>
@@ -5130,7 +5256,7 @@
         <v>282.68099999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>381.19600000000003</v>
       </c>
@@ -5148,16 +5274,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5179,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5190,7 +5316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300.166</v>
       </c>
@@ -5201,7 +5327,7 @@
         <v>102.71899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>302.62200000000001</v>
       </c>
@@ -5212,7 +5338,7 @@
         <v>107.029</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>302.27100000000002</v>
       </c>
@@ -5223,7 +5349,7 @@
         <v>106.491</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>301.21899999999999</v>
       </c>
@@ -5234,7 +5360,7 @@
         <v>106.491</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>301.56900000000002</v>
       </c>
@@ -5245,7 +5371,7 @@
         <v>108.107</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300.86799999999999</v>
       </c>
@@ -5256,7 +5382,7 @@
         <v>108.107</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>302.27100000000002</v>
       </c>
@@ -5267,7 +5393,7 @@
         <v>110.262</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>301.56900000000002</v>
       </c>
@@ -5278,7 +5404,7 @@
         <v>109.723</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>300.86799999999999</v>
       </c>
@@ -5289,7 +5415,7 @@
         <v>109.723</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>300.86799999999999</v>
       </c>
@@ -5300,7 +5426,7 @@
         <v>109.723</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>302.27100000000002</v>
       </c>
@@ -5311,7 +5437,7 @@
         <v>111.879</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>302.27100000000002</v>
       </c>
@@ -5322,7 +5448,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>301.56900000000002</v>
       </c>
@@ -5333,7 +5459,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>301.21899999999999</v>
       </c>
@@ -5344,7 +5470,7 @@
         <v>112.417</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>300.86799999999999</v>
       </c>
@@ -5355,7 +5481,7 @@
         <v>112.417</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>302.97300000000001</v>
       </c>
@@ -5366,7 +5492,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>302.62200000000001</v>
       </c>
@@ -5377,7 +5503,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>301.56900000000002</v>
       </c>
@@ -5388,7 +5514,7 @@
         <v>117.267</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>300.86799999999999</v>
       </c>
@@ -5399,7 +5525,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>300.86799999999999</v>
       </c>
@@ -5410,7 +5536,7 @@
         <v>116.18899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>304.37599999999998</v>
       </c>
@@ -5421,7 +5547,7 @@
         <v>123.732</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>302.27100000000002</v>
       </c>
@@ -5432,7 +5558,7 @@
         <v>121.577</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>301.21899999999999</v>
       </c>
@@ -5443,7 +5569,7 @@
         <v>121.577</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>301.21899999999999</v>
       </c>
@@ -5454,7 +5580,7 @@
         <v>122.655</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>302.62200000000001</v>
       </c>
@@ -5465,7 +5591,7 @@
         <v>125.88800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>300.86799999999999</v>
       </c>
@@ -5476,7 +5602,7 @@
         <v>122.655</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>300.86799999999999</v>
       </c>
@@ -5487,7 +5613,7 @@
         <v>122.655</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>302.62200000000001</v>
       </c>
@@ -5498,7 +5624,7 @@
         <v>127.504</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>302.97300000000001</v>
       </c>
@@ -5509,7 +5635,7 @@
         <v>129.65899999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>302.27100000000002</v>
       </c>
@@ -5520,7 +5646,7 @@
         <v>129.65899999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>301.21899999999999</v>
       </c>
@@ -5531,7 +5657,7 @@
         <v>129.65899999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>303.67399999999998</v>
       </c>
@@ -5542,7 +5668,7 @@
         <v>134.50899999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>302.97300000000001</v>
       </c>
@@ -5553,7 +5679,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>302.27100000000002</v>
       </c>
@@ -5564,7 +5690,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>301.21899999999999</v>
       </c>
@@ -5575,7 +5701,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>305.428</v>
       </c>
@@ -5586,7 +5712,7 @@
         <v>142.59100000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>303.67399999999998</v>
       </c>
@@ -5597,7 +5723,7 @@
         <v>141.51300000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>302.27100000000002</v>
       </c>
@@ -5608,7 +5734,7 @@
         <v>140.97399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>301.56900000000002</v>
       </c>
@@ -5619,7 +5745,7 @@
         <v>140.97399999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>300.86799999999999</v>
       </c>
@@ -5630,7 +5756,7 @@
         <v>140.97399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>301.21899999999999</v>
       </c>
@@ -5641,7 +5767,7 @@
         <v>140.97399999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>302.97300000000001</v>
       </c>
@@ -5652,7 +5778,7 @@
         <v>144.74600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>302.27100000000002</v>
       </c>
@@ -5663,7 +5789,7 @@
         <v>144.20699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>302.27100000000002</v>
       </c>
@@ -5674,7 +5800,7 @@
         <v>143.66800000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>301.56900000000002</v>
       </c>
@@ -5685,7 +5811,7 @@
         <v>144.20699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>301.21899999999999</v>
       </c>
@@ -5696,7 +5822,7 @@
         <v>143.66800000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>305.077</v>
       </c>
@@ -5707,7 +5833,7 @@
         <v>151.21199999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>303.32299999999998</v>
       </c>
@@ -5718,7 +5844,7 @@
         <v>150.673</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>302.27100000000002</v>
       </c>
@@ -5729,7 +5855,7 @@
         <v>149.595</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>299.81599999999997</v>
       </c>
@@ -5740,7 +5866,7 @@
         <v>145.82400000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>300.166</v>
       </c>
@@ -5751,7 +5877,7 @@
         <v>145.82400000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>305.779</v>
       </c>
@@ -5762,7 +5888,7 @@
         <v>158.21600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>304.37599999999998</v>
       </c>
@@ -5773,7 +5899,7 @@
         <v>157.67699999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>302.27100000000002</v>
       </c>
@@ -5784,7 +5910,7 @@
         <v>157.13900000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>301.56900000000002</v>
       </c>
@@ -5795,7 +5921,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>301.21899999999999</v>
       </c>
@@ -5806,7 +5932,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>304.02499999999998</v>
       </c>
@@ -5817,7 +5943,7 @@
         <v>163.066</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>302.97300000000001</v>
       </c>
@@ -5828,7 +5954,7 @@
         <v>162.52699999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>302.27100000000002</v>
       </c>
@@ -5839,7 +5965,7 @@
         <v>161.988</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>301.56900000000002</v>
       </c>
@@ -5850,7 +5976,7 @@
         <v>161.988</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>301.21899999999999</v>
       </c>
@@ -5861,7 +5987,7 @@
         <v>161.988</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>303.67399999999998</v>
       </c>
@@ -5872,7 +5998,7 @@
         <v>167.376</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>303.67399999999998</v>
       </c>
@@ -5883,7 +6009,7 @@
         <v>168.99199999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>303.67399999999998</v>
       </c>
@@ -5894,7 +6020,7 @@
         <v>171.148</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>302.62200000000001</v>
       </c>
@@ -5905,7 +6031,7 @@
         <v>171.148</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>302.27100000000002</v>
       </c>
@@ -5916,7 +6042,7 @@
         <v>171.148</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>301.56900000000002</v>
       </c>
@@ -5927,7 +6053,7 @@
         <v>170.60900000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>301.56900000000002</v>
       </c>
@@ -5938,7 +6064,7 @@
         <v>170.60900000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>301.21899999999999</v>
       </c>
@@ -5949,7 +6075,7 @@
         <v>170.07</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>301.21899999999999</v>
       </c>
@@ -5960,7 +6086,7 @@
         <v>170.07</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>302.62200000000001</v>
       </c>
@@ -5971,7 +6097,7 @@
         <v>174.91900000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>302.27100000000002</v>
       </c>
@@ -5982,7 +6108,7 @@
         <v>174.91900000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>302.27100000000002</v>
       </c>
@@ -5993,7 +6119,7 @@
         <v>174.381</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>301.21899999999999</v>
       </c>
@@ -6004,7 +6130,7 @@
         <v>174.381</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>304.37599999999998</v>
       </c>
@@ -6015,7 +6141,7 @@
         <v>181.92400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>303.67399999999998</v>
       </c>
@@ -6026,7 +6152,7 @@
         <v>181.38499999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>302.27100000000002</v>
       </c>
@@ -6037,7 +6163,7 @@
         <v>181.38499999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>302.27100000000002</v>
       </c>
@@ -6048,7 +6174,7 @@
         <v>180.846</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>301.56900000000002</v>
       </c>
@@ -6059,7 +6185,7 @@
         <v>180.846</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>301.21899999999999</v>
       </c>
@@ -6070,7 +6196,7 @@
         <v>180.846</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>305.077</v>
       </c>
@@ -6081,7 +6207,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>305.077</v>
       </c>
@@ -6092,7 +6218,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>302.62200000000001</v>
       </c>
@@ -6103,7 +6229,7 @@
         <v>191.62200000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>302.62200000000001</v>
       </c>
@@ -6114,7 +6240,7 @@
         <v>193.77799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>302.27100000000002</v>
       </c>
@@ -6125,7 +6251,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>302.27100000000002</v>
       </c>
@@ -6136,7 +6262,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>301.56900000000002</v>
       </c>
@@ -6147,7 +6273,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>301.21899999999999</v>
       </c>
@@ -6158,7 +6284,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>301.21899999999999</v>
       </c>
@@ -6169,7 +6295,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>301.21899999999999</v>
       </c>
@@ -6180,7 +6306,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>304.02499999999998</v>
       </c>
@@ -6191,7 +6317,7 @@
         <v>201.321</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>302.97300000000001</v>
       </c>
@@ -6202,7 +6328,7 @@
         <v>201.321</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>302.27100000000002</v>
       </c>
@@ -6213,7 +6339,7 @@
         <v>200.78200000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>301.56900000000002</v>
       </c>
@@ -6224,7 +6350,7 @@
         <v>200.24299999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>301.56900000000002</v>
       </c>
@@ -6235,7 +6361,7 @@
         <v>200.24299999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>301.56900000000002</v>
       </c>
@@ -6246,7 +6372,7 @@
         <v>200.24299999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>301.21899999999999</v>
       </c>
@@ -6257,7 +6383,7 @@
         <v>200.24299999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>302.27100000000002</v>
       </c>
@@ -6268,7 +6394,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>302.97300000000001</v>
       </c>
@@ -6279,7 +6405,7 @@
         <v>206.709</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>302.27100000000002</v>
       </c>
@@ -6290,7 +6416,7 @@
         <v>206.17</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>302.27100000000002</v>
       </c>
@@ -6301,7 +6427,7 @@
         <v>205.63200000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>301.56900000000002</v>
       </c>
@@ -6312,7 +6438,7 @@
         <v>205.63200000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>303.32299999999998</v>
       </c>
@@ -6323,7 +6449,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>302.62200000000001</v>
       </c>
@@ -6334,7 +6460,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>302.27100000000002</v>
       </c>
@@ -6345,7 +6471,7 @@
         <v>210.48099999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>302.27100000000002</v>
       </c>
@@ -6356,7 +6482,7 @@
         <v>209.94200000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>301.21899999999999</v>
       </c>
@@ -6367,7 +6493,7 @@
         <v>209.94200000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>301.21899999999999</v>
       </c>
@@ -6378,7 +6504,7 @@
         <v>209.94200000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>306.48</v>
       </c>
@@ -6389,7 +6515,7 @@
         <v>227.184</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>304.37599999999998</v>
       </c>
@@ -6400,7 +6526,7 @@
         <v>226.10599999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>299.81599999999997</v>
       </c>
@@ -6411,7 +6537,7 @@
         <v>216.947</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>300.166</v>
       </c>
@@ -6422,7 +6548,7 @@
         <v>217.48500000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>303.67399999999998</v>
       </c>
@@ -6433,7 +6559,7 @@
         <v>227.72300000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>303.32299999999998</v>
       </c>
@@ -6444,7 +6570,7 @@
         <v>226.64500000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>302.62200000000001</v>
       </c>
@@ -6461,16 +6587,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C153"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6481,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6492,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6502,8 +6628,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>299.81599999999997</v>
       </c>
@@ -6513,8 +6642,19 @@
       <c r="C4">
         <v>102.71899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>20409.443547999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>MIN(D4:D153)</f>
+        <v>20409.443547999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>301.56900000000002</v>
       </c>
@@ -6524,8 +6664,19 @@
       <c r="C5">
         <v>106.491</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" ref="D5:D68" si="0">B5*C5</f>
+        <v>20761.698342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <f>MAX(D4:D153)</f>
+        <v>20907.120192999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>302.27100000000002</v>
       </c>
@@ -6535,8 +6686,19 @@
       <c r="C6">
         <v>107.568</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>20709.851903999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(D4:D153)</f>
+        <v>20762.156536526672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>302.27100000000002</v>
       </c>
@@ -6546,8 +6708,19 @@
       <c r="C7">
         <v>108.646</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20723.572624</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.STDEV.P(D4:D153)</f>
+        <v>65.287789243621361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>301.21899999999999</v>
       </c>
@@ -6557,8 +6730,12 @@
       <c r="C8">
         <v>108.646</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>20723.572624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>301.56900000000002</v>
       </c>
@@ -6568,8 +6745,12 @@
       <c r="C9">
         <v>109.723</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>20715.482953999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>301.21899999999999</v>
       </c>
@@ -6579,8 +6760,12 @@
       <c r="C10">
         <v>110.262</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>20691.987444000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>301.56900000000002</v>
       </c>
@@ -6590,8 +6775,12 @@
       <c r="C11">
         <v>110.801</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>20667.378127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>301.56900000000002</v>
       </c>
@@ -6601,8 +6790,12 @@
       <c r="C12">
         <v>111.879</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>20686.986495000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>301.56900000000002</v>
       </c>
@@ -6612,8 +6805,12 @@
       <c r="C13">
         <v>112.956</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>20757.811164000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>302.27100000000002</v>
       </c>
@@ -6623,8 +6820,12 @@
       <c r="C14">
         <v>114.03400000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>20789.424505999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>301.56900000000002</v>
       </c>
@@ -6634,8 +6835,12 @@
       <c r="C15">
         <v>114.03400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>20696.942932000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>301.21899999999999</v>
       </c>
@@ -6645,8 +6850,12 @@
       <c r="C16">
         <v>114.57299999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>20739.087875999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>301.21899999999999</v>
       </c>
@@ -6656,8 +6865,12 @@
       <c r="C17">
         <v>115.11199999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>20724.534255999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>301.21899999999999</v>
       </c>
@@ -6667,8 +6880,12 @@
       <c r="C18">
         <v>115.65</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>20708.867249999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>301.56900000000002</v>
       </c>
@@ -6678,8 +6895,12 @@
       <c r="C19">
         <v>116.72799999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>20769.413039999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>302.27100000000002</v>
       </c>
@@ -6689,8 +6910,12 @@
       <c r="C20">
         <v>117.267</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>20713.104744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>301.21899999999999</v>
       </c>
@@ -6700,8 +6925,12 @@
       <c r="C21">
         <v>117.267</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>20713.104744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>301.56900000000002</v>
       </c>
@@ -6711,8 +6940,12 @@
       <c r="C22">
         <v>118.34399999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>20730.555167999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>302.27100000000002</v>
       </c>
@@ -6722,8 +6955,12 @@
       <c r="C23">
         <v>119.422</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20764.380827999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>302.27100000000002</v>
       </c>
@@ -6733,8 +6970,12 @@
       <c r="C24">
         <v>119.961</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>20721.943179000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>301.56900000000002</v>
       </c>
@@ -6744,8 +6985,12 @@
       <c r="C25">
         <v>121.038</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>20770.483914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>301.56900000000002</v>
       </c>
@@ -6755,8 +7000,12 @@
       <c r="C26">
         <v>121.038</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>20691.930252000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>301.56900000000002</v>
       </c>
@@ -6766,8 +7015,12 @@
       <c r="C27">
         <v>122.116</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>20757.399795999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>301.21899999999999</v>
       </c>
@@ -6777,8 +7030,12 @@
       <c r="C28">
         <v>122.116</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>20757.399795999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>301.56900000000002</v>
       </c>
@@ -6788,8 +7045,12 @@
       <c r="C29">
         <v>123.194</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>20760.776073999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>301.21899999999999</v>
       </c>
@@ -6799,8 +7060,12 @@
       <c r="C30">
         <v>123.194</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>20720.861218000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>301.56900000000002</v>
       </c>
@@ -6810,8 +7075,12 @@
       <c r="C31">
         <v>123.732</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>20711.004551999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>302.27100000000002</v>
       </c>
@@ -6821,8 +7090,12 @@
       <c r="C32">
         <v>125.349</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>20818.964712000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>301.56900000000002</v>
       </c>
@@ -6832,8 +7105,12 @@
       <c r="C33">
         <v>125.349</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>20758.045098000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>301.21899999999999</v>
       </c>
@@ -6843,8 +7120,12 @@
       <c r="C34">
         <v>125.349</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>20737.613211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>301.56900000000002</v>
       </c>
@@ -6854,8 +7135,12 @@
       <c r="C35">
         <v>126.42700000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>20772.461808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>302.27100000000002</v>
       </c>
@@ -6865,8 +7150,12 @@
       <c r="C36">
         <v>126.965</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>20757.888745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>302.27100000000002</v>
       </c>
@@ -6876,8 +7165,12 @@
       <c r="C37">
         <v>128.04300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>20726.448453000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>301.56900000000002</v>
       </c>
@@ -6887,8 +7180,12 @@
       <c r="C38">
         <v>128.04300000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>20705.705487000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>302.27100000000002</v>
       </c>
@@ -6898,8 +7195,12 @@
       <c r="C39">
         <v>130.19800000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>20842.877028000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>301.56900000000002</v>
       </c>
@@ -6909,8 +7210,12 @@
       <c r="C40">
         <v>130.19800000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>20737.286450000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>301.56900000000002</v>
       </c>
@@ -6920,8 +7225,12 @@
       <c r="C41">
         <v>130.19800000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>20695.102298000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>302.27100000000002</v>
       </c>
@@ -6931,8 +7240,12 @@
       <c r="C42">
         <v>131.815</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>20759.676165000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>301.56900000000002</v>
       </c>
@@ -6942,8 +7255,12 @@
       <c r="C43">
         <v>132.35300000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>20801.523951000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>302.27100000000002</v>
       </c>
@@ -6953,8 +7270,12 @@
       <c r="C44">
         <v>132.892</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>20778.461551999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>302.27100000000002</v>
       </c>
@@ -6964,8 +7285,12 @@
       <c r="C45">
         <v>133.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>20773.12026</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>301.56900000000002</v>
       </c>
@@ -6975,8 +7300,12 @@
       <c r="C46">
         <v>133.97</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>20751.417119999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>301.21899999999999</v>
       </c>
@@ -6986,8 +7315,12 @@
       <c r="C47">
         <v>133.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>20751.417119999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>302.27100000000002</v>
       </c>
@@ -6997,8 +7330,12 @@
       <c r="C48">
         <v>135.58600000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>20759.708046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>301.56900000000002</v>
       </c>
@@ -7008,8 +7345,12 @@
       <c r="C49">
         <v>135.58600000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>20759.708046</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>302.27100000000002</v>
       </c>
@@ -7019,8 +7360,12 @@
       <c r="C50">
         <v>136.66399999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>20747.508495999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>301.56900000000002</v>
       </c>
@@ -7030,8 +7375,12 @@
       <c r="C51">
         <v>136.66399999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>20747.508495999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>302.27100000000002</v>
       </c>
@@ -7041,8 +7390,12 @@
       <c r="C52">
         <v>138.81899999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>20849.503248000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>302.27100000000002</v>
       </c>
@@ -7052,8 +7405,12 @@
       <c r="C53">
         <v>138.81899999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>20849.503248000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>302.27100000000002</v>
       </c>
@@ -7063,8 +7420,12 @@
       <c r="C54">
         <v>139.89699999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>20784.497289999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>302.27100000000002</v>
       </c>
@@ -7074,8 +7435,12 @@
       <c r="C55">
         <v>139.89699999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>20761.694079000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>302.27100000000002</v>
       </c>
@@ -7085,8 +7450,12 @@
       <c r="C56">
         <v>142.59100000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>20907.120192999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>302.27100000000002</v>
       </c>
@@ -7096,8 +7465,12 @@
       <c r="C57">
         <v>143.13</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>20823.69744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>302.27100000000002</v>
       </c>
@@ -7107,8 +7480,12 @@
       <c r="C58">
         <v>143.13</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>20800.367249999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>302.27100000000002</v>
       </c>
@@ -7118,8 +7495,12 @@
       <c r="C59">
         <v>144.20699999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>20816.568864000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>302.62200000000001</v>
       </c>
@@ -7129,8 +7510,12 @@
       <c r="C60">
         <v>145.82400000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>20813.45952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>302.27100000000002</v>
       </c>
@@ -7140,8 +7525,12 @@
       <c r="C61">
         <v>145.285</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>20736.528049999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>302.27100000000002</v>
       </c>
@@ -7151,8 +7540,12 @@
       <c r="C62">
         <v>146.36199999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>20795.259321999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>302.27100000000002</v>
       </c>
@@ -7162,8 +7555,12 @@
       <c r="C63">
         <v>148.518</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>20812.569929999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>302.27100000000002</v>
       </c>
@@ -7173,8 +7570,12 @@
       <c r="C64">
         <v>148.518</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>20812.569929999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>302.27100000000002</v>
       </c>
@@ -7184,8 +7585,12 @@
       <c r="C65">
         <v>149.595</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>20817.789795000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>302.27100000000002</v>
       </c>
@@ -7195,8 +7600,12 @@
       <c r="C66">
         <v>151.21199999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>20895.683855999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>302.27100000000002</v>
       </c>
@@ -7206,8 +7615,12 @@
       <c r="C67">
         <v>151.751</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>20871.680788999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>301.56900000000002</v>
       </c>
@@ -7217,8 +7630,12 @@
       <c r="C68">
         <v>151.751</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>20822.513465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>302.27100000000002</v>
       </c>
@@ -7228,8 +7645,12 @@
       <c r="C69">
         <v>152.28899999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" ref="D69:D132" si="1">B69*C69</f>
+        <v>20797.499573999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>302.27100000000002</v>
       </c>
@@ -7239,8 +7660,12 @@
       <c r="C70">
         <v>153.90600000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>20868.576258000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>302.27100000000002</v>
       </c>
@@ -7250,8 +7675,12 @@
       <c r="C71">
         <v>153.36699999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>20795.491630999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>302.27100000000002</v>
       </c>
@@ -7261,8 +7690,12 @@
       <c r="C72">
         <v>154.983</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>20813.441984999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>301.56900000000002</v>
       </c>
@@ -7272,8 +7705,12 @@
       <c r="C73">
         <v>154.983</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>20838.549231000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>302.27100000000002</v>
       </c>
@@ -7283,8 +7720,12 @@
       <c r="C74">
         <v>156.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>20776.591799999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>302.27100000000002</v>
       </c>
@@ -7294,8 +7735,12 @@
       <c r="C75">
         <v>156.06100000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>20705.081053000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>301.56900000000002</v>
       </c>
@@ -7305,8 +7750,12 @@
       <c r="C76">
         <v>156.06100000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>20730.362935000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>301.56900000000002</v>
       </c>
@@ -7316,8 +7765,12 @@
       <c r="C77">
         <v>157.67699999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>20817.148247999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>302.27100000000002</v>
       </c>
@@ -7327,8 +7780,12 @@
       <c r="C78">
         <v>158.21600000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>20759.996008000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>302.27100000000002</v>
       </c>
@@ -7338,8 +7795,12 @@
       <c r="C79">
         <v>160.37200000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>20834.72838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>302.27100000000002</v>
       </c>
@@ -7349,8 +7810,12 @@
       <c r="C80">
         <v>160.37200000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>20808.748115999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>302.97300000000001</v>
       </c>
@@ -7360,8 +7825,12 @@
       <c r="C81">
         <v>164.143</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>20872.095593999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>302.27100000000002</v>
       </c>
@@ -7371,8 +7840,12 @@
       <c r="C82">
         <v>163.60400000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>20803.557432000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>301.56900000000002</v>
       </c>
@@ -7382,8 +7855,12 @@
       <c r="C83">
         <v>163.60400000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>20803.557432000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>301.56900000000002</v>
       </c>
@@ -7393,8 +7870,12 @@
       <c r="C84">
         <v>164.143</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>20872.095593999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>302.27100000000002</v>
       </c>
@@ -7404,8 +7885,12 @@
       <c r="C85">
         <v>164.68199999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>20726.876519999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>301.56900000000002</v>
       </c>
@@ -7415,8 +7900,12 @@
       <c r="C86">
         <v>165.221</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>20794.715059999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>302.27100000000002</v>
       </c>
@@ -7426,8 +7915,12 @@
       <c r="C87">
         <v>167.91499999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>20861.423769999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>302.62200000000001</v>
       </c>
@@ -7437,8 +7930,12 @@
       <c r="C88">
         <v>170.07</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>20853.30312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>302.27100000000002</v>
       </c>
@@ -7448,8 +7945,12 @@
       <c r="C89">
         <v>170.07</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>20853.30312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>301.56900000000002</v>
       </c>
@@ -7459,8 +7960,12 @@
       <c r="C90">
         <v>169.53100000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>20787.213095999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>302.27100000000002</v>
       </c>
@@ -7470,8 +7975,12 @@
       <c r="C91">
         <v>171.148</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>20791.05904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>302.62200000000001</v>
       </c>
@@ -7481,8 +7990,12 @@
       <c r="C92">
         <v>173.303</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>20828.074449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>302.27100000000002</v>
       </c>
@@ -7492,8 +8005,12 @@
       <c r="C93">
         <v>172.76400000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>20791.283579999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>302.27100000000002</v>
       </c>
@@ -7503,8 +8020,12 @@
       <c r="C94">
         <v>174.91900000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>20823.582193000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>302.27100000000002</v>
       </c>
@@ -7514,8 +8035,12 @@
       <c r="C95">
         <v>174.381</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>20759.534907000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>303.67399999999998</v>
       </c>
@@ -7525,8 +8050,12 @@
       <c r="C96">
         <v>178.691</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>20866.820216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>302.62200000000001</v>
       </c>
@@ -7536,8 +8065,12 @@
       <c r="C97">
         <v>178.691</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>20866.820216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>302.27100000000002</v>
       </c>
@@ -7547,8 +8080,12 @@
       <c r="C98">
         <v>178.15199999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>20803.877951999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>301.56900000000002</v>
       </c>
@@ -7558,8 +8095,12 @@
       <c r="C99">
         <v>178.15199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>20803.877951999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>302.27100000000002</v>
       </c>
@@ -7569,8 +8110,12 @@
       <c r="C100">
         <v>180.846</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>20825.140284000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>302.27100000000002</v>
       </c>
@@ -7580,8 +8125,12 @@
       <c r="C101">
         <v>180.846</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>20795.843232000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>302.27100000000002</v>
       </c>
@@ -7591,8 +8140,12 @@
       <c r="C102">
         <v>181.92400000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>20801.735932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>303.32299999999998</v>
       </c>
@@ -7602,8 +8155,12 @@
       <c r="C103">
         <v>185.696</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>20841.590560000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>301.56900000000002</v>
       </c>
@@ -7613,8 +8170,12 @@
       <c r="C104">
         <v>181.92400000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>20683.667256000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>300.86799999999999</v>
       </c>
@@ -7624,8 +8185,12 @@
       <c r="C105">
         <v>181.92400000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>20683.667256000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>302.27100000000002</v>
       </c>
@@ -7635,8 +8200,12 @@
       <c r="C106">
         <v>185.696</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>20811.322112000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>302.27100000000002</v>
       </c>
@@ -7646,8 +8215,12 @@
       <c r="C107">
         <v>185.15700000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>20781.095895000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>302.62200000000001</v>
       </c>
@@ -7657,8 +8230,12 @@
       <c r="C108">
         <v>187.851</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>20839.626387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>302.27100000000002</v>
       </c>
@@ -7668,8 +8245,12 @@
       <c r="C109">
         <v>187.31200000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>20779.831344000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>301.56900000000002</v>
       </c>
@@ -7679,8 +8260,12 @@
       <c r="C110">
         <v>187.31200000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>20779.831344000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>301.56900000000002</v>
       </c>
@@ -7690,8 +8275,12 @@
       <c r="C111">
         <v>186.773</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>20720.036301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>301.56900000000002</v>
       </c>
@@ -7701,8 +8290,12 @@
       <c r="C112">
         <v>188.928</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>20836.491264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>302.27100000000002</v>
       </c>
@@ -7712,8 +8305,12 @@
       <c r="C113">
         <v>190.006</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>20770.50589</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>302.27100000000002</v>
       </c>
@@ -7723,8 +8320,12 @@
       <c r="C114">
         <v>189.46700000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>20742.278759000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>302.27100000000002</v>
       </c>
@@ -7734,8 +8335,12 @@
       <c r="C115">
         <v>192.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>20752.4411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>302.27100000000002</v>
       </c>
@@ -7745,8 +8350,12 @@
       <c r="C116">
         <v>192.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>20752.4411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>302.97300000000001</v>
       </c>
@@ -7756,8 +8365,12 @@
       <c r="C117">
         <v>196.47200000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>20807.956576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>302.27100000000002</v>
       </c>
@@ -7767,8 +8380,12 @@
       <c r="C118">
         <v>195.93299999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>20750.872164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>302.27100000000002</v>
       </c>
@@ -7778,8 +8395,12 @@
       <c r="C119">
         <v>195.93299999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>20750.872164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>302.27100000000002</v>
       </c>
@@ -7789,8 +8410,12 @@
       <c r="C120">
         <v>198.62700000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>20875.101819</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>302.97300000000001</v>
       </c>
@@ -7800,8 +8425,12 @@
       <c r="C121">
         <v>201.321</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>20799.076473000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>302.27100000000002</v>
       </c>
@@ -7811,8 +8440,12 @@
       <c r="C122">
         <v>200.78200000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>20743.390766</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>302.27100000000002</v>
       </c>
@@ -7822,8 +8455,12 @@
       <c r="C123">
         <v>200.78200000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>20743.390766</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>302.27100000000002</v>
       </c>
@@ -7833,8 +8470,12 @@
       <c r="C124">
         <v>203.476</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>20757.604139999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>302.27100000000002</v>
       </c>
@@ -7844,8 +8485,12 @@
       <c r="C125">
         <v>203.476</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>20757.604139999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>302.27100000000002</v>
       </c>
@@ -7855,8 +8500,12 @@
       <c r="C126">
         <v>202.93700000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>20702.618055000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>301.56900000000002</v>
       </c>
@@ -7866,8 +8515,12 @@
       <c r="C127">
         <v>202.93700000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>20702.618055000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>301.56900000000002</v>
       </c>
@@ -7877,8 +8530,12 @@
       <c r="C128">
         <v>202.93700000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>20669.742260999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>302.97300000000001</v>
       </c>
@@ -7888,8 +8545,12 @@
       <c r="C129">
         <v>207.78700000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>20793.037303000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>302.27100000000002</v>
       </c>
@@ -7899,8 +8560,12 @@
       <c r="C130">
         <v>207.24799999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>20739.100112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>303.67399999999998</v>
       </c>
@@ -7910,8 +8575,12 @@
       <c r="C131">
         <v>211.55799999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>20792.766471999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>302.62200000000001</v>
       </c>
@@ -7921,8 +8590,12 @@
       <c r="C132">
         <v>211.02</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>20774.285940000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>302.27100000000002</v>
       </c>
@@ -7932,8 +8605,12 @@
       <c r="C133">
         <v>210.48099999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <f t="shared" ref="D133:D153" si="2">B133*C133</f>
+        <v>20686.914604000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>301.56900000000002</v>
       </c>
@@ -7943,8 +8620,12 @@
       <c r="C134">
         <v>209.94200000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>20668.160074000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>302.27100000000002</v>
       </c>
@@ -7954,8 +8635,12 @@
       <c r="C135">
         <v>212.636</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>20691.821796</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>302.97300000000001</v>
       </c>
@@ -7965,8 +8650,12 @@
       <c r="C136">
         <v>215.869</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>20761.416944000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>302.27100000000002</v>
       </c>
@@ -7976,8 +8665,12 @@
       <c r="C137">
         <v>215.33</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>20674.694620000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>302.97300000000001</v>
       </c>
@@ -7987,8 +8680,12 @@
       <c r="C138">
         <v>218.56299999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>20736.820314000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>302.62200000000001</v>
       </c>
@@ -7998,8 +8695,12 @@
       <c r="C139">
         <v>219.64099999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>20803.516955999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>302.27100000000002</v>
       </c>
@@ -8009,8 +8710,12 @@
       <c r="C140">
         <v>218.56299999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>20701.413107999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>303.67399999999998</v>
       </c>
@@ -8020,8 +8725,12 @@
       <c r="C141">
         <v>224.49</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>20752.978049999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>302.62200000000001</v>
       </c>
@@ -8031,8 +8740,12 @@
       <c r="C142">
         <v>223.95099999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>20739.430257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>302.27100000000002</v>
       </c>
@@ -8042,8 +8755,12 @@
       <c r="C143">
         <v>223.41200000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>20689.515083999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>301.56900000000002</v>
       </c>
@@ -8053,8 +8770,12 @@
       <c r="C144">
         <v>222.87299999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>20639.599910999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>301.56900000000002</v>
       </c>
@@ -8064,8 +8785,12 @@
       <c r="C145">
         <v>222.87299999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>20639.599910999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>301.56900000000002</v>
       </c>
@@ -8075,8 +8800,12 @@
       <c r="C146">
         <v>223.41200000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>20653.322339999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>302.97300000000001</v>
       </c>
@@ -8086,8 +8815,12 @@
       <c r="C147">
         <v>228.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>20780.3024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>302.27100000000002</v>
       </c>
@@ -8097,8 +8830,12 @@
       <c r="C148">
         <v>227.184</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>20633.532432</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>302.27100000000002</v>
       </c>
@@ -8108,8 +8845,12 @@
       <c r="C149">
         <v>227.184</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>20670.336240000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>301.56900000000002</v>
       </c>
@@ -8119,8 +8860,12 @@
       <c r="C150">
         <v>227.184</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>20670.336240000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>302.27100000000002</v>
       </c>
@@ -8130,8 +8875,12 @@
       <c r="C151">
         <v>228.262</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>20657.254476000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>302.27100000000002</v>
       </c>
@@ -8141,8 +8890,12 @@
       <c r="C152">
         <v>228.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>20705.942400000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>301.56900000000002</v>
       </c>
@@ -8151,6 +8904,10 @@
       </c>
       <c r="C153">
         <v>228.262</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>20657.254476000002</v>
       </c>
     </row>
   </sheetData>
@@ -8160,16 +8917,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -8177,7 +8934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8191,7 +8948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>198.53</v>
       </c>
@@ -8205,7 +8962,7 @@
         <v>102.71899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>198.69200000000001</v>
       </c>
@@ -8219,7 +8976,7 @@
         <v>106.491</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>198.69200000000001</v>
       </c>
@@ -8233,7 +8990,7 @@
         <v>107.568</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>198.69200000000001</v>
       </c>
@@ -8247,7 +9004,7 @@
         <v>108.646</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>198.53</v>
       </c>
@@ -8261,7 +9018,7 @@
         <v>108.646</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>198.53</v>
       </c>
@@ -8275,7 +9032,7 @@
         <v>109.723</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>198.53</v>
       </c>
@@ -8289,7 +9046,7 @@
         <v>110.262</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>198.53</v>
       </c>
@@ -8303,7 +9060,7 @@
         <v>110.801</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>198.53</v>
       </c>
@@ -8317,7 +9074,7 @@
         <v>111.879</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>198.53</v>
       </c>
@@ -8331,7 +9088,7 @@
         <v>112.956</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>198.53</v>
       </c>
@@ -8345,7 +9102,7 @@
         <v>114.03400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>198.53</v>
       </c>
@@ -8359,7 +9116,7 @@
         <v>114.03400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>198.53</v>
       </c>
@@ -8373,7 +9130,7 @@
         <v>114.57299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>198.20599999999999</v>
       </c>
@@ -8387,7 +9144,7 @@
         <v>115.11199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>197.881</v>
       </c>
@@ -8401,7 +9158,7 @@
         <v>115.65</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>197.232</v>
       </c>
@@ -8415,7 +9172,7 @@
         <v>116.72799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>196.90799999999999</v>
       </c>
@@ -8429,7 +9186,7 @@
         <v>117.267</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>196.25899999999999</v>
       </c>
@@ -8443,7 +9200,7 @@
         <v>117.267</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>195.286</v>
       </c>
@@ -8457,7 +9214,7 @@
         <v>118.34399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>194.15100000000001</v>
       </c>
@@ -8471,7 +9228,7 @@
         <v>119.422</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>192.85300000000001</v>
       </c>
@@ -8485,7 +9242,7 @@
         <v>119.961</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>191.23099999999999</v>
       </c>
@@ -8499,7 +9256,7 @@
         <v>121.038</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>189.77099999999999</v>
       </c>
@@ -8513,7 +9270,7 @@
         <v>121.038</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>188.149</v>
       </c>
@@ -8527,7 +9284,7 @@
         <v>122.116</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>186.202</v>
       </c>
@@ -8541,7 +9298,7 @@
         <v>122.116</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>184.256</v>
       </c>
@@ -8555,7 +9312,7 @@
         <v>123.194</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>182.309</v>
       </c>
@@ -8569,7 +9326,7 @@
         <v>123.194</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>180.363</v>
       </c>
@@ -8583,7 +9340,7 @@
         <v>123.732</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>177.93</v>
       </c>
@@ -8597,7 +9354,7 @@
         <v>125.349</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>175.65899999999999</v>
       </c>
@@ -8611,7 +9368,7 @@
         <v>125.349</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>173.22499999999999</v>
       </c>
@@ -8625,7 +9382,7 @@
         <v>125.349</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>170.30600000000001</v>
       </c>
@@ -8639,7 +9396,7 @@
         <v>126.42700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>167.386</v>
       </c>
@@ -8653,7 +9410,7 @@
         <v>126.965</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>164.142</v>
       </c>
@@ -8667,7 +9424,7 @@
         <v>128.04300000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>160.57300000000001</v>
       </c>
@@ -8681,7 +9438,7 @@
         <v>128.04300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>157.00399999999999</v>
       </c>
@@ -8695,7 +9452,7 @@
         <v>130.19800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>153.43600000000001</v>
       </c>
@@ -8709,7 +9466,7 @@
         <v>130.19800000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>149.70500000000001</v>
       </c>
@@ -8723,7 +9480,7 @@
         <v>130.19800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>145.81200000000001</v>
       </c>
@@ -8737,7 +9494,7 @@
         <v>131.815</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>141.75700000000001</v>
       </c>
@@ -8751,7 +9508,7 @@
         <v>132.35300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>137.70099999999999</v>
       </c>
@@ -8765,7 +9522,7 @@
         <v>132.892</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>133.971</v>
       </c>
@@ -8779,7 +9536,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>130.726</v>
       </c>
@@ -8793,7 +9550,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>127.32</v>
       </c>
@@ -8807,7 +9564,7 @@
         <v>133.97</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>124.562</v>
       </c>
@@ -8821,7 +9578,7 @@
         <v>135.58600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>121.967</v>
       </c>
@@ -8835,7 +9592,7 @@
         <v>135.58600000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>119.21</v>
       </c>
@@ -8849,7 +9606,7 @@
         <v>136.66399999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>116.93899999999999</v>
       </c>
@@ -8863,7 +9620,7 @@
         <v>136.66399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>114.66800000000001</v>
       </c>
@@ -8877,7 +9634,7 @@
         <v>138.81899999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>112.235</v>
       </c>
@@ -8891,7 +9648,7 @@
         <v>138.81899999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>110.288</v>
       </c>
@@ -8905,7 +9662,7 @@
         <v>139.89699999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>107.855</v>
       </c>
@@ -8919,7 +9676,7 @@
         <v>139.89699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105.584</v>
       </c>
@@ -8933,7 +9690,7 @@
         <v>142.59100000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>103.313</v>
       </c>
@@ -8947,7 +9704,7 @@
         <v>143.13</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>101.366</v>
       </c>
@@ -8961,7 +9718,7 @@
         <v>143.13</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>99.257999999999996</v>
       </c>
@@ -8975,7 +9732,7 @@
         <v>144.20699999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>97.472999999999999</v>
       </c>
@@ -8989,7 +9746,7 @@
         <v>145.82400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95.688999999999993</v>
       </c>
@@ -9003,7 +9760,7 @@
         <v>145.285</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>94.066999999999993</v>
       </c>
@@ -9017,7 +9774,7 @@
         <v>146.36199999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>92.606999999999999</v>
       </c>
@@ -9031,7 +9788,7 @@
         <v>148.518</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>91.147000000000006</v>
       </c>
@@ -9045,7 +9802,7 @@
         <v>148.518</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90.335999999999999</v>
       </c>
@@ -9059,7 +9816,7 @@
         <v>149.595</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>90.335999999999999</v>
       </c>
@@ -9073,7 +9830,7 @@
         <v>151.21199999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90.335999999999999</v>
       </c>
@@ -9087,7 +9844,7 @@
         <v>151.751</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>137.215</v>
       </c>
@@ -9095,7 +9852,7 @@
         <v>151.751</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>136.566</v>
       </c>
@@ -9103,7 +9860,7 @@
         <v>152.28899999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>135.59299999999999</v>
       </c>
@@ -9111,7 +9868,7 @@
         <v>153.90600000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>135.59299999999999</v>
       </c>
@@ -9119,7 +9876,7 @@
         <v>153.36699999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>134.29499999999999</v>
       </c>
@@ -9127,7 +9884,7 @@
         <v>154.983</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>134.45699999999999</v>
       </c>
@@ -9135,7 +9892,7 @@
         <v>154.983</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>132.673</v>
       </c>
@@ -9143,7 +9900,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>132.673</v>
       </c>
@@ -9151,7 +9908,7 @@
         <v>156.06100000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>132.83500000000001</v>
       </c>
@@ -9159,7 +9916,7 @@
         <v>156.06100000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>132.024</v>
       </c>
@@ -9167,7 +9924,7 @@
         <v>157.67699999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>131.21299999999999</v>
       </c>
@@ -9175,7 +9932,7 @@
         <v>158.21600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>129.91499999999999</v>
       </c>
@@ -9183,7 +9940,7 @@
         <v>160.37200000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>129.75299999999999</v>
       </c>
@@ -9191,7 +9948,7 @@
         <v>160.37200000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>127.158</v>
       </c>
@@ -9199,7 +9956,7 @@
         <v>164.143</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>127.158</v>
       </c>
@@ -9207,7 +9964,7 @@
         <v>163.60400000000001</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>127.158</v>
       </c>
@@ -9215,7 +9972,7 @@
         <v>163.60400000000001</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>127.158</v>
       </c>
@@ -9223,7 +9980,7 @@
         <v>164.143</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>125.86</v>
       </c>
@@ -9231,7 +9988,7 @@
         <v>164.68199999999999</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>125.86</v>
       </c>
@@ -9239,7 +9996,7 @@
         <v>165.221</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>124.238</v>
       </c>
@@ -9247,7 +10004,7 @@
         <v>167.91499999999999</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>122.616</v>
       </c>
@@ -9255,7 +10012,7 @@
         <v>170.07</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>122.616</v>
       </c>
@@ -9263,7 +10020,7 @@
         <v>170.07</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>122.616</v>
       </c>
@@ -9271,7 +10028,7 @@
         <v>169.53100000000001</v>
       </c>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>121.48</v>
       </c>
@@ -9279,7 +10036,7 @@
         <v>171.148</v>
       </c>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>120.18300000000001</v>
       </c>
@@ -9287,7 +10044,7 @@
         <v>173.303</v>
       </c>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>120.345</v>
       </c>
@@ -9295,7 +10052,7 @@
         <v>172.76400000000001</v>
       </c>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>119.047</v>
       </c>
@@ -9303,7 +10060,7 @@
         <v>174.91900000000001</v>
       </c>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>119.047</v>
       </c>
@@ -9311,7 +10068,7 @@
         <v>174.381</v>
       </c>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>116.776</v>
       </c>
@@ -9319,7 +10076,7 @@
         <v>178.691</v>
       </c>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>116.776</v>
       </c>
@@ -9327,7 +10084,7 @@
         <v>178.691</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>116.776</v>
       </c>
@@ -9335,7 +10092,7 @@
         <v>178.15199999999999</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>116.776</v>
       </c>
@@ -9343,7 +10100,7 @@
         <v>178.15199999999999</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>115.154</v>
       </c>
@@ -9351,7 +10108,7 @@
         <v>180.846</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>114.992</v>
       </c>
@@ -9359,7 +10116,7 @@
         <v>180.846</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>114.343</v>
       </c>
@@ -9367,7 +10124,7 @@
         <v>181.92400000000001</v>
       </c>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>112.235</v>
       </c>
@@ -9375,7 +10132,7 @@
         <v>185.696</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>113.694</v>
       </c>
@@ -9383,7 +10140,7 @@
         <v>181.92400000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>113.694</v>
       </c>
@@ -9391,7 +10148,7 @@
         <v>181.92400000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>112.072</v>
       </c>
@@ -9399,7 +10156,7 @@
         <v>185.696</v>
       </c>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>112.235</v>
       </c>
@@ -9407,7 +10164,7 @@
         <v>185.15700000000001</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>110.937</v>
       </c>
@@ -9415,7 +10172,7 @@
         <v>187.851</v>
       </c>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>110.937</v>
       </c>
@@ -9423,7 +10180,7 @@
         <v>187.31200000000001</v>
       </c>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>110.937</v>
       </c>
@@ -9431,7 +10188,7 @@
         <v>187.31200000000001</v>
       </c>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>110.937</v>
       </c>
@@ -9439,7 +10196,7 @@
         <v>186.773</v>
       </c>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>110.288</v>
       </c>
@@ -9447,7 +10204,7 @@
         <v>188.928</v>
       </c>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>109.315</v>
       </c>
@@ -9455,7 +10212,7 @@
         <v>190.006</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>109.477</v>
       </c>
@@ -9463,7 +10220,7 @@
         <v>189.46700000000001</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>107.693</v>
       </c>
@@ -9471,7 +10228,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>107.693</v>
       </c>
@@ -9479,7 +10236,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>105.908</v>
       </c>
@@ -9487,7 +10244,7 @@
         <v>196.47200000000001</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>105.908</v>
       </c>
@@ -9495,7 +10252,7 @@
         <v>195.93299999999999</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>105.908</v>
       </c>
@@ -9503,7 +10260,7 @@
         <v>195.93299999999999</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>105.09699999999999</v>
       </c>
@@ -9511,7 +10268,7 @@
         <v>198.62700000000001</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>103.313</v>
       </c>
@@ -9519,7 +10276,7 @@
         <v>201.321</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>103.313</v>
       </c>
@@ -9527,7 +10284,7 @@
         <v>200.78200000000001</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>103.313</v>
       </c>
@@ -9535,7 +10292,7 @@
         <v>200.78200000000001</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>102.015</v>
       </c>
@@ -9543,7 +10300,7 @@
         <v>203.476</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>102.015</v>
       </c>
@@ -9551,7 +10308,7 @@
         <v>203.476</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>102.015</v>
       </c>
@@ -9559,7 +10316,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>102.015</v>
       </c>
@@ -9567,7 +10324,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>101.85299999999999</v>
       </c>
@@ -9575,7 +10332,7 @@
         <v>202.93700000000001</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>100.069</v>
       </c>
@@ -9583,7 +10340,7 @@
         <v>207.78700000000001</v>
       </c>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>100.069</v>
       </c>
@@ -9591,7 +10348,7 @@
         <v>207.24799999999999</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>98.284000000000006</v>
       </c>
@@ -9599,7 +10356,7 @@
         <v>211.55799999999999</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>98.447000000000003</v>
       </c>
@@ -9607,7 +10364,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>98.284000000000006</v>
       </c>
@@ -9615,7 +10372,7 @@
         <v>210.48099999999999</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>98.447000000000003</v>
       </c>
@@ -9623,7 +10380,7 @@
         <v>209.94200000000001</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>97.311000000000007</v>
       </c>
@@ -9631,7 +10388,7 @@
         <v>212.636</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>96.176000000000002</v>
       </c>
@@ -9639,7 +10396,7 @@
         <v>215.869</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>96.013999999999996</v>
       </c>
@@ -9647,7 +10404,7 @@
         <v>215.33</v>
       </c>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>94.878</v>
       </c>
@@ -9655,7 +10412,7 @@
         <v>218.56299999999999</v>
       </c>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>94.715999999999994</v>
       </c>
@@ -9663,7 +10420,7 @@
         <v>219.64099999999999</v>
       </c>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>94.715999999999994</v>
       </c>
@@ -9671,7 +10428,7 @@
         <v>218.56299999999999</v>
       </c>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>92.444999999999993</v>
       </c>
@@ -9679,7 +10436,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>92.606999999999999</v>
       </c>
@@ -9687,7 +10444,7 @@
         <v>223.95099999999999</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>92.606999999999999</v>
       </c>
@@ -9695,7 +10452,7 @@
         <v>223.41200000000001</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>92.606999999999999</v>
       </c>
@@ -9703,7 +10460,7 @@
         <v>222.87299999999999</v>
       </c>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>92.606999999999999</v>
       </c>
@@ -9711,7 +10468,7 @@
         <v>222.87299999999999</v>
       </c>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>92.444999999999993</v>
       </c>
@@ -9719,7 +10476,7 @@
         <v>223.41200000000001</v>
       </c>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>90.822999999999993</v>
       </c>
@@ -9727,7 +10484,7 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>90.822999999999993</v>
       </c>
@@ -9735,7 +10492,7 @@
         <v>227.184</v>
       </c>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>90.984999999999999</v>
       </c>
@@ -9743,7 +10500,7 @@
         <v>227.184</v>
       </c>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>90.984999999999999</v>
       </c>
@@ -9751,7 +10508,7 @@
         <v>227.184</v>
       </c>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>90.498000000000005</v>
       </c>
@@ -9759,7 +10516,7 @@
         <v>228.262</v>
       </c>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>90.498000000000005</v>
       </c>
@@ -9767,7 +10524,7 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>90.498000000000005</v>
       </c>
